--- a/DB設計書_エンティティ定義書.xlsx
+++ b/DB設計書_エンティティ定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f661d3a34d694c25/ドキュメント/2023/GitHub/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{9DA2EB6E-BDAE-4766-83CB-F47B59F69251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B45112E4-1447-4100-99AD-44130483811A}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{9DA2EB6E-BDAE-4766-83CB-F47B59F69251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED85CCE-437D-4915-BEEE-2CD6734E2980}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ定義書（タスク）" sheetId="13" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="5"/>
@@ -309,13 +309,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>開始時刻</t>
-    <rPh sb="0" eb="4">
-      <t>カイシジコク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>task_code</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -325,10 +318,6 @@
   </si>
   <si>
     <t>task_color</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>task_starttime</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -387,6 +376,28 @@
   </si>
   <si>
     <t>task_category</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>task_starttime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PK FK auto_increment</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1436,88 +1447,13 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1541,6 +1477,108 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1549,33 +1587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1889,8 +1900,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1933,7 @@
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="123">
+      <c r="H1" s="77">
         <v>45300</v>
       </c>
     </row>
@@ -1949,12 +1960,12 @@
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1975,40 +1986,40 @@
         <v>12</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
+      <c r="C5" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
+      <c r="C6" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
@@ -2029,10 +2040,10 @@
       <c r="B9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="109"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="75" t="s">
         <v>18</v>
       </c>
@@ -2053,19 +2064,19 @@
       <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="111"/>
+      <c r="C10" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="86"/>
       <c r="E10" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2075,15 +2086,15 @@
       <c r="B11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="99"/>
+      <c r="C11" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="79"/>
       <c r="E11" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
@@ -2093,14 +2104,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="99"/>
+        <v>59</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="79"/>
       <c r="E12" s="20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -2111,25 +2122,33 @@
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="99"/>
+        <v>47</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="79"/>
       <c r="E13" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="26"/>
       <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
@@ -2137,8 +2156,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -2147,8 +2166,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
@@ -2157,8 +2176,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2167,8 +2186,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2177,8 +2196,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2187,8 +2206,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2197,8 +2216,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -2207,8 +2226,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
@@ -2217,8 +2236,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -2227,8 +2246,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
@@ -2237,8 +2256,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
@@ -2247,8 +2266,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
@@ -2257,8 +2276,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
@@ -2267,8 +2286,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
@@ -2277,8 +2296,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="85"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -2310,10 +2329,10 @@
       <c r="A32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="37" t="s">
         <v>24</v>
       </c>
@@ -2328,51 +2347,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="21"/>
       <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="21"/>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="82"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="99"/>
       <c r="G37" s="31"/>
       <c r="H37" s="32"/>
     </row>
@@ -2405,15 +2424,15 @@
       <c r="B40" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="88" t="s">
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="104"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="41" t="s">
         <v>29</v>
       </c>
@@ -2421,51 +2440,51 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="79"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="92"/>
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="82"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="82"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="47"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="82"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="101"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2497,15 +2516,15 @@
       <c r="B48" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="88" t="s">
+      <c r="C48" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="102" t="s">
+      <c r="D48" s="100"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="103"/>
+      <c r="G48" s="88"/>
       <c r="H48" s="12" t="s">
         <v>32</v>
       </c>
@@ -2515,15 +2534,15 @@
         <v>1</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="77" t="s">
+      <c r="D49" s="102"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="79"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="44" t="s">
         <v>33</v>
       </c>
@@ -2531,57 +2550,77 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="82"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
       <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="82"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="47"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="46"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="82"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="47"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="49"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="101"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="96"/>
       <c r="H53" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F53:G53"/>
@@ -2598,38 +2637,18 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2649,8 +2668,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2682,7 +2701,7 @@
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="123">
+      <c r="H1" s="77">
         <v>45300</v>
       </c>
     </row>
@@ -2709,12 +2728,12 @@
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2735,40 +2754,40 @@
         <v>12</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
+      <c r="C5" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
+      <c r="C6" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
@@ -2789,10 +2808,10 @@
       <c r="B9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="109"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="75" t="s">
         <v>18</v>
       </c>
@@ -2813,19 +2832,19 @@
       <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="111"/>
+      <c r="C10" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="86"/>
       <c r="E10" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,35 +2852,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="C11" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="79"/>
       <c r="E11" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>3</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="22"/>
@@ -2869,8 +2878,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="26"/>
@@ -2879,8 +2888,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
@@ -2889,8 +2898,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -2899,8 +2908,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
@@ -2909,8 +2918,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2919,8 +2928,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2929,8 +2938,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2939,8 +2948,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2949,8 +2958,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -2959,8 +2968,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
@@ -2969,8 +2978,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -2979,8 +2988,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
@@ -2989,8 +2998,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
@@ -2999,8 +3008,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
@@ -3009,8 +3018,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
@@ -3019,8 +3028,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
@@ -3029,8 +3038,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="85"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -3062,10 +3071,10 @@
       <c r="A32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="37" t="s">
         <v>24</v>
       </c>
@@ -3080,51 +3089,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="21"/>
       <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="21"/>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="82"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="99"/>
       <c r="G37" s="31"/>
       <c r="H37" s="32"/>
     </row>
@@ -3157,15 +3166,15 @@
       <c r="B40" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="88" t="s">
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="104"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="41" t="s">
         <v>29</v>
       </c>
@@ -3173,51 +3182,51 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="79"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="92"/>
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="82"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="82"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="47"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="82"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="101"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,15 +3258,15 @@
       <c r="B48" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="88" t="s">
+      <c r="C48" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="102" t="s">
+      <c r="D48" s="100"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="103"/>
+      <c r="G48" s="88"/>
       <c r="H48" s="12" t="s">
         <v>32</v>
       </c>
@@ -3267,15 +3276,15 @@
         <v>1</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="77" t="s">
+      <c r="D49" s="102"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="79"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="44" t="s">
         <v>33</v>
       </c>
@@ -3283,86 +3292,57 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="82"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
       <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="82"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="47"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="46"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="82"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="47"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="49"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="101"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="96"/>
       <c r="H53" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -3370,18 +3350,47 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3444,10 +3453,10 @@
       <c r="K2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="118" t="s">
+      <c r="L2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="119"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
@@ -3469,8 +3478,8 @@
       <c r="K3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="118"/>
-      <c r="M3" s="119"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="114"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
@@ -3490,10 +3499,10 @@
       <c r="K4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="118" t="s">
+      <c r="L4" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="119"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -3554,14 +3563,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="F9" s="63"/>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,11 +3590,11 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="117"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -3596,11 +3605,11 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="67"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -3611,11 +3620,11 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -3626,11 +3635,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
@@ -3641,11 +3650,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="67"/>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
@@ -3656,11 +3665,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="117"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
@@ -3671,11 +3680,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="117"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
@@ -3686,11 +3695,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
@@ -3701,11 +3710,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="117"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
@@ -3716,11 +3725,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="67"/>
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
@@ -3731,11 +3740,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="67"/>
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
@@ -3746,7 +3755,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
-      <c r="B22" s="113"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="68"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3761,7 +3770,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
-      <c r="B23" s="113"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="68"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -3776,7 +3785,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
-      <c r="B24" s="113"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="68"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3791,7 +3800,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
-      <c r="B25" s="113"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="68"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3806,7 +3815,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
-      <c r="B26" s="113"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="68"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3821,7 +3830,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
-      <c r="B27" s="113"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="68"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3836,7 +3845,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
-      <c r="B28" s="113"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="68"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3851,7 +3860,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
-      <c r="B29" s="113"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="68"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -3866,7 +3875,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
-      <c r="B30" s="113"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="68"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -3881,7 +3890,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
-      <c r="B31" s="113"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="68"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -3896,11 +3905,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="117"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
@@ -3911,11 +3920,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="117"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
@@ -3926,11 +3935,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="117"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
       <c r="G34" s="67"/>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
@@ -3941,11 +3950,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="117"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="120"/>
       <c r="G35" s="67"/>
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
@@ -3956,11 +3965,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="117"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="120"/>
       <c r="G36" s="67"/>
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
@@ -3990,11 +3999,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -4011,6 +4015,11 @@
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4019,14 +4028,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4207,21 +4214,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
-    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4246,9 +4252,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
+    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DB設計書_エンティティ定義書.xlsx
+++ b/DB設計書_エンティティ定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f661d3a34d694c25/ドキュメント/2023/GitHub/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{9DA2EB6E-BDAE-4766-83CB-F47B59F69251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED85CCE-437D-4915-BEEE-2CD6734E2980}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{9DA2EB6E-BDAE-4766-83CB-F47B59F69251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC74BBB6-A33B-410A-ADAA-944EDBB179D7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ定義書（タスク）" sheetId="13" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="5"/>
@@ -313,14 +313,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>task_name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>task_color</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>NN</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -338,21 +330,6 @@
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>detail</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -363,41 +340,64 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>task_detail</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>VARCHAR(1000)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>カテゴリー</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>task_category</t>
+    <t>カテゴリ</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>task_starttime</t>
+  </si>
+  <si>
+    <t>task_color</t>
+  </si>
+  <si>
+    <t>task_detail</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+  </si>
+  <si>
     <t>開始時刻</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
+    <rPh sb="0" eb="4">
+      <t>カイシジコク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>task_starttime</t>
+    <t>Task</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>VARCHAR(20)</t>
+    <t>カテゴリコード</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PK FK auto_increment</t>
+    <t>category_code</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>category_code</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FK auto_increment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>category_name</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1450,10 +1450,88 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,82 +1555,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1569,24 +1587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1900,8 +1900,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1960,12 +1960,12 @@
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1986,40 +1986,40 @@
         <v>12</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
+      <c r="C5" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
+      <c r="C6" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
@@ -2040,10 +2040,10 @@
       <c r="B9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="75" t="s">
         <v>18</v>
       </c>
@@ -2064,19 +2064,19 @@
       <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="86"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2086,15 +2086,15 @@
       <c r="B11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="100"/>
+      <c r="E11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
@@ -2103,81 +2103,91 @@
       <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="78" t="s">
+      <c r="B13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="100"/>
+      <c r="E13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="79"/>
+        <v>47</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="100"/>
       <c r="E14" s="25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="23">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="100"/>
+      <c r="E15" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2186,8 +2196,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2196,8 +2206,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2206,8 +2216,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2216,8 +2226,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -2226,8 +2236,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
@@ -2236,8 +2246,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -2246,8 +2256,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
@@ -2256,8 +2266,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
@@ -2266,8 +2276,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
@@ -2276,8 +2286,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
@@ -2286,8 +2296,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
@@ -2296,8 +2306,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="99"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -2332,7 +2342,7 @@
       <c r="B32" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="37" t="s">
         <v>24</v>
       </c>
@@ -2347,51 +2357,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="80"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="21"/>
       <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="94"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="21"/>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="94"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="86"/>
       <c r="G37" s="31"/>
       <c r="H37" s="32"/>
     </row>
@@ -2427,12 +2437,12 @@
       <c r="C40" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="90"/>
+      <c r="G40" s="105"/>
       <c r="H40" s="41" t="s">
         <v>29</v>
       </c>
@@ -2440,51 +2450,51 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="92"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="83"/>
       <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="47"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="94"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="83"/>
       <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="102"/>
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2519,12 +2529,12 @@
       <c r="C48" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="100"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="87" t="s">
+      <c r="D48" s="90"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="88"/>
+      <c r="G48" s="104"/>
       <c r="H48" s="12" t="s">
         <v>32</v>
       </c>
@@ -2534,15 +2544,15 @@
         <v>1</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="91" t="s">
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="92"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="44" t="s">
         <v>33</v>
       </c>
@@ -2550,61 +2560,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="94"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="83"/>
       <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="94"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="83"/>
       <c r="H51" s="47"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="46"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="83"/>
       <c r="H52" s="47"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="49"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="96"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="102"/>
       <c r="H53" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -2621,34 +2643,22 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2668,8 +2678,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2728,12 +2738,12 @@
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2754,40 +2764,40 @@
         <v>12</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
+      <c r="C5" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
+      <c r="C6" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
@@ -2808,10 +2818,10 @@
       <c r="B9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="75" t="s">
         <v>18</v>
       </c>
@@ -2830,21 +2840,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="86"/>
+        <v>65</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="112"/>
       <c r="E10" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2852,14 +2862,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="79"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="100"/>
       <c r="E11" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -2868,8 +2878,8 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -2878,8 +2888,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="26"/>
@@ -2888,8 +2898,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
@@ -2898,8 +2908,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -2908,8 +2918,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
@@ -2918,8 +2928,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2928,8 +2938,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2938,8 +2948,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2948,8 +2958,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2958,8 +2968,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -2968,8 +2978,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
@@ -2978,8 +2988,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -2988,8 +2998,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
@@ -2998,8 +3008,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
@@ -3008,8 +3018,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
@@ -3018,8 +3028,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
@@ -3028,8 +3038,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
@@ -3038,8 +3048,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="99"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -3074,7 +3084,7 @@
       <c r="B32" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="37" t="s">
         <v>24</v>
       </c>
@@ -3089,51 +3099,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="80"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="21"/>
       <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="94"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="21"/>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="94"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="86"/>
       <c r="G37" s="31"/>
       <c r="H37" s="32"/>
     </row>
@@ -3169,12 +3179,12 @@
       <c r="C40" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="90"/>
+      <c r="G40" s="105"/>
       <c r="H40" s="41" t="s">
         <v>29</v>
       </c>
@@ -3182,51 +3192,51 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="92"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="83"/>
       <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="47"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="94"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="83"/>
       <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="102"/>
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3261,12 +3271,12 @@
       <c r="C48" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="100"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="87" t="s">
+      <c r="D48" s="90"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="88"/>
+      <c r="G48" s="104"/>
       <c r="H48" s="12" t="s">
         <v>32</v>
       </c>
@@ -3276,15 +3286,15 @@
         <v>1</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="91" t="s">
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="92"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="44" t="s">
         <v>33</v>
       </c>
@@ -3292,45 +3302,93 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="94"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="83"/>
       <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="94"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="83"/>
       <c r="H51" s="47"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="46"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="83"/>
       <c r="H52" s="47"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="49"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="96"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="102"/>
       <c r="H53" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C5:H5"/>
@@ -3343,54 +3401,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3453,10 +3463,10 @@
       <c r="K2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="114"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
@@ -3478,8 +3488,8 @@
       <c r="K3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="113"/>
-      <c r="M3" s="114"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="120"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
@@ -3499,10 +3509,10 @@
       <c r="K4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="113" t="s">
+      <c r="L4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="114"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -3563,14 +3573,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="F9" s="63"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3590,11 +3600,11 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -3605,11 +3615,11 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
       <c r="G12" s="67"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -3620,11 +3630,11 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -3635,11 +3645,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
@@ -3650,11 +3660,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="67"/>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
@@ -3665,11 +3675,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
@@ -3680,11 +3690,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
@@ -3695,11 +3705,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
@@ -3710,11 +3720,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
@@ -3725,11 +3735,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="67"/>
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
@@ -3740,11 +3750,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
       <c r="G21" s="67"/>
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
@@ -3755,7 +3765,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
-      <c r="B22" s="122"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="68"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3770,7 +3780,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
-      <c r="B23" s="122"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="68"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -3785,7 +3795,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
-      <c r="B24" s="122"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="68"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3800,7 +3810,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
-      <c r="B25" s="122"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="68"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3815,7 +3825,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
-      <c r="B26" s="122"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="68"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3830,7 +3840,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
-      <c r="B27" s="122"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="68"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3845,7 +3855,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
-      <c r="B28" s="122"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="68"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3860,7 +3870,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
-      <c r="B29" s="122"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="68"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -3875,7 +3885,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
-      <c r="B30" s="122"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="68"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -3890,7 +3900,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
-      <c r="B31" s="122"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="68"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -3905,11 +3915,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
@@ -3920,11 +3930,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
@@ -3935,11 +3945,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="120"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
       <c r="G34" s="67"/>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
@@ -3950,11 +3960,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
       <c r="G35" s="67"/>
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
@@ -3965,11 +3975,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="120"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="67"/>
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
@@ -3999,6 +4009,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -4015,11 +4030,6 @@
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4028,12 +4038,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4214,20 +4226,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
+    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4252,12 +4265,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
-    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DB設計書_エンティティ定義書.xlsx
+++ b/DB設計書_エンティティ定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f661d3a34d694c25/ドキュメント/2023/GitHub/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{9DA2EB6E-BDAE-4766-83CB-F47B59F69251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC74BBB6-A33B-410A-ADAA-944EDBB179D7}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{9DA2EB6E-BDAE-4766-83CB-F47B59F69251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD0A3F8-2385-4BF7-A96A-A6AE7132E921}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="5"/>
@@ -351,9 +351,6 @@
     <t>task_starttime</t>
   </si>
   <si>
-    <t>task_color</t>
-  </si>
-  <si>
     <t>task_detail</t>
   </si>
   <si>
@@ -398,6 +395,10 @@
   </si>
   <si>
     <t>category_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>category_color</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1450,88 +1451,10 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1555,6 +1478,108 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1563,30 +1588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1900,8 +1901,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="C14:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1960,12 +1961,12 @@
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1986,40 +1987,40 @@
         <v>12</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
+      <c r="C6" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
@@ -2040,10 +2041,10 @@
       <c r="B9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="110"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="75" t="s">
         <v>18</v>
       </c>
@@ -2064,10 +2065,10 @@
       <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="112"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="15" t="s">
         <v>50</v>
       </c>
@@ -2086,12 +2087,12 @@
       <c r="B11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>49</v>
@@ -2106,12 +2107,12 @@
       <c r="B12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="100"/>
+      <c r="C12" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="79"/>
       <c r="E12" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="26"/>
@@ -2122,19 +2123,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="100"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="20" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2142,33 +2143,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="100"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="79"/>
       <c r="E14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <v>6</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
@@ -2176,8 +2169,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
@@ -2186,8 +2179,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2196,8 +2189,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2206,8 +2199,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2216,8 +2209,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2226,8 +2219,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -2236,8 +2229,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
@@ -2246,8 +2239,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -2256,8 +2249,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
@@ -2266,8 +2259,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
@@ -2276,8 +2269,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
@@ -2286,8 +2279,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
@@ -2296,8 +2289,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
@@ -2306,8 +2299,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -2342,7 +2335,7 @@
       <c r="B32" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="37" t="s">
         <v>24</v>
       </c>
@@ -2357,51 +2350,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="21"/>
       <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="21"/>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="86"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="99"/>
       <c r="G37" s="31"/>
       <c r="H37" s="32"/>
     </row>
@@ -2437,12 +2430,12 @@
       <c r="C40" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="91"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="105"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="41" t="s">
         <v>29</v>
       </c>
@@ -2450,51 +2443,51 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="80"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="92"/>
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="83"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="83"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="47"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="83"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2529,12 +2522,12 @@
       <c r="C48" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="90"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="103" t="s">
+      <c r="D48" s="100"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="104"/>
+      <c r="G48" s="88"/>
       <c r="H48" s="12" t="s">
         <v>32</v>
       </c>
@@ -2544,15 +2537,15 @@
         <v>1</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="79"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="78" t="s">
+      <c r="D49" s="102"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="80"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="44" t="s">
         <v>33</v>
       </c>
@@ -2560,57 +2553,77 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="83"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
       <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="83"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="47"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="46"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="83"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="47"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="49"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="102"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="96"/>
       <c r="H53" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F53:G53"/>
@@ -2627,38 +2640,18 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2678,8 +2671,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2738,12 +2731,12 @@
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2764,40 +2757,40 @@
         <v>12</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
+      <c r="C6" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
@@ -2818,10 +2811,10 @@
       <c r="B9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="110"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="75" t="s">
         <v>18</v>
       </c>
@@ -2840,12 +2833,12 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="112"/>
+        <v>64</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="86"/>
       <c r="E10" s="15" t="s">
         <v>50</v>
       </c>
@@ -2864,23 +2857,33 @@
       <c r="B11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="100"/>
+      <c r="C11" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="79"/>
       <c r="E11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="18">
+        <v>3</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="22"/>
@@ -2888,8 +2891,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="26"/>
@@ -2898,8 +2901,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
@@ -2908,8 +2911,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -2918,8 +2921,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
@@ -2928,8 +2931,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2938,8 +2941,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2948,8 +2951,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2958,8 +2961,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2968,8 +2971,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -2978,8 +2981,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
@@ -2988,8 +2991,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -2998,8 +3001,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
@@ -3008,8 +3011,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
@@ -3018,8 +3021,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
@@ -3028,8 +3031,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
@@ -3038,8 +3041,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
@@ -3048,8 +3051,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -3084,7 +3087,7 @@
       <c r="B32" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="37" t="s">
         <v>24</v>
       </c>
@@ -3099,51 +3102,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="21"/>
       <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="21"/>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="86"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="99"/>
       <c r="G37" s="31"/>
       <c r="H37" s="32"/>
     </row>
@@ -3179,12 +3182,12 @@
       <c r="C40" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="91"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="105"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="41" t="s">
         <v>29</v>
       </c>
@@ -3192,51 +3195,51 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="80"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="92"/>
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="83"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="83"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="47"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="83"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3271,12 +3274,12 @@
       <c r="C48" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="90"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="103" t="s">
+      <c r="D48" s="100"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="104"/>
+      <c r="G48" s="88"/>
       <c r="H48" s="12" t="s">
         <v>32</v>
       </c>
@@ -3286,15 +3289,15 @@
         <v>1</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="79"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="78" t="s">
+      <c r="D49" s="102"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="80"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="44" t="s">
         <v>33</v>
       </c>
@@ -3302,81 +3305,57 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="83"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
       <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="83"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="47"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="46"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="83"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="47"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="49"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="102"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="96"/>
       <c r="H53" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -3389,18 +3368,42 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3463,10 +3466,10 @@
       <c r="K2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="119" t="s">
+      <c r="L2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="120"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
@@ -3488,8 +3491,8 @@
       <c r="K3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="120"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="114"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
@@ -3509,10 +3512,10 @@
       <c r="K4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="119" t="s">
+      <c r="L4" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -3573,14 +3576,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="F9" s="63"/>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3600,11 +3603,11 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -3615,11 +3618,11 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="67"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -3630,11 +3633,11 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -3645,11 +3648,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
@@ -3660,11 +3663,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="67"/>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
@@ -3675,11 +3678,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
@@ -3690,11 +3693,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
@@ -3705,11 +3708,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
@@ -3720,11 +3723,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
@@ -3735,11 +3738,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="67"/>
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
@@ -3750,11 +3753,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="67"/>
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
@@ -3765,7 +3768,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
-      <c r="B22" s="114"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="68"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3780,7 +3783,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
-      <c r="B23" s="114"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="68"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -3795,7 +3798,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
-      <c r="B24" s="114"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="68"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3810,7 +3813,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
-      <c r="B25" s="114"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="68"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3825,7 +3828,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
-      <c r="B26" s="114"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="68"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3840,7 +3843,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
-      <c r="B27" s="114"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="68"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3855,7 +3858,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
-      <c r="B28" s="114"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="68"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3870,7 +3873,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
-      <c r="B29" s="114"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="68"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
-      <c r="B30" s="114"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="68"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
-      <c r="B31" s="114"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="68"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -3915,11 +3918,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
@@ -3930,11 +3933,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
@@ -3945,11 +3948,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
       <c r="G34" s="67"/>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
@@ -3960,11 +3963,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="118"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="120"/>
       <c r="G35" s="67"/>
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
@@ -3975,11 +3978,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="118"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="120"/>
       <c r="G36" s="67"/>
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
@@ -4009,11 +4012,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -4030,6 +4028,11 @@
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4038,14 +4041,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4226,21 +4227,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
-    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4265,9 +4265,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
+    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>